--- a/docentes/Flores Ovalle Victor - Estadisticos 20202.xlsx
+++ b/docentes/Flores Ovalle Victor - Estadisticos 20202.xlsx
@@ -73,58 +73,58 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>CANCINO</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
-    <t>CANCINO</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
     <t>DE JESUS</t>
   </si>
   <si>
     <t>TORRES</t>
   </si>
   <si>
+    <t>GUERRA</t>
+  </si>
+  <si>
+    <t>DOLORES</t>
+  </si>
+  <si>
+    <t>ARIZA</t>
+  </si>
+  <si>
     <t>HUERTA</t>
   </si>
   <si>
-    <t>GUERRA</t>
-  </si>
-  <si>
-    <t>DOLORES</t>
-  </si>
-  <si>
-    <t>ARIZA</t>
-  </si>
-  <si>
     <t>ISIDRO</t>
   </si>
   <si>
     <t>ALEJANDRO</t>
   </si>
   <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>JOEL EDUARDO</t>
+  </si>
+  <si>
+    <t>RAUL</t>
+  </si>
+  <si>
+    <t>OSCAR</t>
+  </si>
+  <si>
     <t>ALEJANDRA</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>JOEL EDUARDO</t>
-  </si>
-  <si>
-    <t>RAUL</t>
-  </si>
-  <si>
-    <t>OSCAR</t>
   </si>
   <si>
     <t>MONSERRAT</t>
@@ -805,7 +805,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920214</v>
+        <v>18330051920237</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -817,10 +817,10 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920237</v>
+        <v>18330051920248</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -851,13 +851,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920248</v>
+        <v>18330051920272</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -874,13 +874,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>18330051920272</v>
+        <v>18330051920278</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>34</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>18330051920278</v>
+        <v>20330051920214</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -909,13 +909,13 @@
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
